--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2903945.558982634</v>
+        <v>2974177.320608797</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484452</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4541895.171675729</v>
+        <v>4589197.55143555</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>348.7685789252592</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>14.98428581244334</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
@@ -817,13 +817,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>34.16191984311143</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>55.60767138748474</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -902,19 +902,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>334.7850776714731</v>
+        <v>126.4370384518694</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,7 +1054,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>62.01908106335681</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>326.8753561036519</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>397.0646134635157</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>144.1480758989743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>366.3137620523678</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>61.43755362246745</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.97358346682191</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T14" t="n">
-        <v>13.39436074606917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1768,22 +1768,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>161.7725533806632</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.57637241135475</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>6.133574646794671</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629678</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2239,13 +2239,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>60.80118788412279</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>35.75633396116267</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>205.9555570933295</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>221.9986082496083</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>86.74508580040322</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225694</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3095,7 +3095,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633428</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522577</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580661</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664183</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553073</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712952</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728918</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409762</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892233</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.412621479130776</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.0762701560088</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336992</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341607</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435192</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210844</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644898</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413505</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098047</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796147</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279485</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897775</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758688</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445367</v>
+        <v>94.43123673215206</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107886</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968928</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929907</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353367</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174331</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262813</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475788</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979291</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.83231912371044</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580661</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664183</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553073</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712952</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728918</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409762</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892233</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.0762701560101</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336992</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341607</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435192</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210844</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644898</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413505</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098047</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796147</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279485</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897775</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>30.09138680222842</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445367</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107886</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929907</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353367</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174331</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262813</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475788</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979291</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570402</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580661</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664183</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.8116020553073</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712952</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728918</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>106.9445974742202</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892233</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.0762701560088</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336992</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341607</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435192</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.0678151210844</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644898</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413505</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098047</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796147</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279485</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897775</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758688</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445367</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107886</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929907</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353367</v>
+        <v>16.05512456153178</v>
       </c>
       <c r="U43" t="n">
-        <v>130.8000740437917</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262813</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475788</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979291</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570402</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580661</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664183</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553073</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>392.8887365387011</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728918</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409762</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892233</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.0762701560088</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336992</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435192</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210844</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644898</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413505</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.5371255690622</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796147</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279485</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897775</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758688</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>161.196277302438</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445367</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107886</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9098700929907</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174331</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262813</v>
+        <v>248.9284599389402</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475788</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979291</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570402</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>846.6470431118091</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.967087414383</v>
+        <v>812.5449743356364</v>
       </c>
       <c r="D2" t="n">
         <v>780.675593550485</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>1681.232737297064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1593.368726675464</v>
+        <v>1272.946613596717</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,28 +4395,28 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.45065834212494</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4489,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X4" t="n">
-        <v>487.6889477470038</v>
+        <v>622.9399617557499</v>
       </c>
       <c r="Y4" t="n">
-        <v>260.2692770611121</v>
+        <v>395.5202910698582</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.0044704481411</v>
+        <v>1379.860631332894</v>
       </c>
       <c r="C5" t="n">
-        <v>809.9024016719685</v>
+        <v>1345.758562556722</v>
       </c>
       <c r="D5" t="n">
-        <v>778.0330208868171</v>
+        <v>1313.88918177157</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>880.1144369298654</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>452.2470073390732</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.7649106726458</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1938.935152280721</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>1534.079697691754</v>
       </c>
       <c r="X5" t="n">
-        <v>870.5093565525874</v>
+        <v>1406.365517437341</v>
       </c>
       <c r="Y5" t="n">
-        <v>866.2636368926449</v>
+        <v>1402.119797777398</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970914</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>1019.574372112217</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.186328726961</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1956.230820597392</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1684.204416183683</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1438.812661517096</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1211.392990831204</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>577.3912258549057</v>
       </c>
       <c r="C8" t="n">
-        <v>418.0989517035836</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1427.078979420445</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1007.936515999756</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>973.0996549038641</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>800.5379433870891</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>634.6599505886118</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>464.9019468393491</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>288.1948928011053</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1537.942061378414</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1537.942061378414</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1537.942061378414</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1537.942061378414</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1392.337944308743</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>1164.918273622851</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2491.585377889137</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2053.442905072561</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.533120247005</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1183.7583754053</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>755.8909458145081</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.7468901947269</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.33010082186691</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K11" t="n">
-        <v>96.33010082186691</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L11" t="n">
-        <v>96.33010082186691</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>1253.377936032418</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.108919468865</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3359.288586039171</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4187.598460872568</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4734.097246831162</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277182</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4512.785940150221</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4512.785940150221</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4150.168990084047</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3745.313535495081</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3326.171072074392</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2917.884948374045</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.33010082186691</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.33010082186691</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>96.33010082186691</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>96.33010082186691</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>96.33010082186691</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>96.33010082186691</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>281.9349790950623</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.388261433749</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C13" t="n">
-        <v>1002.826549916973</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D13" t="n">
-        <v>836.948557118496</v>
+        <v>816.2774823142732</v>
       </c>
       <c r="E13" t="n">
-        <v>667.1905533692332</v>
+        <v>646.5194785650106</v>
       </c>
       <c r="F13" t="n">
-        <v>490.4834993309894</v>
+        <v>469.8124245267668</v>
       </c>
       <c r="G13" t="n">
-        <v>324.8922243568171</v>
+        <v>304.2211495525945</v>
       </c>
       <c r="H13" t="n">
-        <v>184.9900500471916</v>
+        <v>164.318975242969</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576924</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256535</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.571889430038</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.330520728035</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.45107430649</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.018073559596</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.062565430026</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.036161016318</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.64440634973</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.388261433749</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.552518830016</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.410046013439</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.500261187884</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.725516346179</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>786.8580867553867</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.4602553786506</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.33010082186691</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>96.33010082186691</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.377936032418</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N14" t="n">
-        <v>2379.108919468865</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3359.288586039171</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4187.598460872568</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4647.350976340289</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4816.505041093345</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4802.975383774084</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4543.7530810911</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.136131024927</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.280676435959</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.13821301527</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.852089314923</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.33010082186691</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>96.33010082186691</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>96.33010082186691</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>96.33010082186691</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>96.33010082186691</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>96.33010082186691</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>281.9349790950623</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1084.256938986374</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>911.6952274695988</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>748.2886078931713</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>578.5306041439085</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8235501056647</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G16" t="n">
-        <v>236.2322751314924</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186691</v>
+        <v>142.2369740196228</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724666</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.748342022663</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.868895601118</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2307.868895601118</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>2020.913387471549</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1748.88698305784</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1503.495228391253</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1276.075557705361</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,22 +5519,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
@@ -5552,13 +5552,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5589,25 +5589,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>845.1948155628804</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>679.3168227644031</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.575145798643</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,37 +5756,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883925</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>750.3393363912985</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
         <v>584.4613435928212</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050032</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.57329640738</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
         <v>306.120802776629</v>
@@ -6014,19 +6014,19 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573036</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562605</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577832</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085205</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702768</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2351.643165215688</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2073.210164468793</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.254656339223</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1514.228251925515</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.836497258927</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1041.416826573036</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
         <v>306.120802776629</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L29" t="n">
         <v>306.120802776629</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,49 +6701,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>306.1208027766299</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987181</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6868,7 +6868,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
         <v>2203.220781338905</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995631</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625511</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246413</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851165</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068297</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765499</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662233</v>
+        <v>102.677629643639</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>266.1704725488134</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>266.1704725488134</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M35" t="n">
-        <v>1423.218307759364</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195811</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.128957766118</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599513</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.937618558109</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311165</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941459</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260954</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024429</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404713</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262203</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287971</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034082</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.6335786575161</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941584</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407116</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676653</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>228.582575583827</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500108</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>101.4618336662233</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>101.4618336662233</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>101.4618336662233</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>101.4618336662233</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>101.4618336662233</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>101.4618336662233</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.0667119394186</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580585</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372792</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>998.3282046251894</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>828.5332455548715</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>665.4220052028513</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>498.4307539000457</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F37" t="n">
-        <v>324.4904523082592</v>
+        <v>451.897152078511</v>
       </c>
       <c r="G37" t="n">
-        <v>324.4904523082592</v>
+        <v>286.3058771043387</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3550304450908</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036858</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.223361547594</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883277</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642013</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872431</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170984</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151204</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.163927303033</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2564.689311047487</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2321.576617072399</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2045.910368771962</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1761.721613088849</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1492.461961121598</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1249.836958901468</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1187.380070897719</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.08373699563</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.70801662551</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.564984246412</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851164</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068289</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765499</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662233</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>266.1704725488134</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>266.1704725488134</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1423.218307759364</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195811</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.128957766118</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599513</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.937618558109</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311165</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941459</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260954</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024429</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404712</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262202</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.13592628797</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034081</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.6335786575161</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941584</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407116</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676653</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.582575583827</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500108</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>101.4618336662233</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4618336662233</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>101.4618336662233</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>101.4618336662233</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>101.4618336662233</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>101.4618336662233</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.0667119394186</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580585</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372792</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>854.7832432376739</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>684.988284167356</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>521.8770438153358</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>354.8857925125303</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>354.8857925125303</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>324.4904523082592</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3550304450908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036858</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.223361547594</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883277</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642013</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872431</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170984</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151204</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2739.814996151204</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2583.340379895658</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2340.22768592057</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2064.561437620133</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1780.37268193702</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1511.113029969769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.488027749638</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1043.835109510204</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2214.546764549995</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.171044179875</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1346.028011800777</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>915.0200194055292</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>489.9193422611941</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276372</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731058</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>95.53109421731058</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1252.578929427862</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2378.309912864308</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3358.489579434615</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4060.901860153878</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4607.400646112473</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495823</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.369114815318</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.913564578793</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3862.063366959076</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3459.974664816567</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.598953842335</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2638.079582588445</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086033</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452456</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917989</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187526</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349142</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2667464010981</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>95.53109421731058</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>95.53109421731058</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>95.53109421731058</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>95.53109421731058</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>95.53109421731058</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>95.53109421731058</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>281.135972490506</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091457</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883665</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>992.3974651762774</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C43" t="n">
-        <v>822.6025061059593</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>659.4912657539389</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>492.5000144511332</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>318.5597128593465</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>318.5597128593465</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961781</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.822473454773</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.2926220986813</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394149</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193101</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.380256423518</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722072</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765186</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2577.409640446745</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2334.296946471658</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U43" t="n">
-        <v>2202.175659558736</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V43" t="n">
-        <v>1917.986903875623</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W43" t="n">
-        <v>1648.727251908372</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X43" t="n">
-        <v>1406.102249688242</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y43" t="n">
-        <v>1181.449331448807</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2471.002314786519</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2035.626594416401</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1602.483562037303</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.626252402251</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255752579162</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276372</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731058</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>95.53109421731058</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1252.578929427862</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2378.309912864308</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3232.591985320482</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4060.901860153878</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4607.400646112473</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4695.669589495823</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4478.369114815318</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4478.369114815318</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4118.518917195602</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3716.430215053092</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3300.05450407886</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2894.53513282497</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086033</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452456</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917989</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187526</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349142</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2667464010981</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>95.53109421731058</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>95.53109421731058</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>95.53109421731058</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>95.53109421731058</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>95.53109421731058</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>95.53109421731058</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>281.135972490506</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091457</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883665</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.221987703992</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>985.4270286336741</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>822.3157882816539</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>655.3245369788483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>481.3842353870617</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>318.5597128593465</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4242909961781</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.822473454773</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.2926220986813</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394149</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193101</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.380256423518</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722072</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765186</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2577.409640446745</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2577.409640446745</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2301.743392146307</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2017.554636463195</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W46" t="n">
-        <v>1748.294984495943</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X46" t="n">
-        <v>1505.669982275813</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1281.017064036378</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8052,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335037</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188023</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.9496038847592</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>83.24019622442756</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>464.3964802704259</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>671.1057765021978</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>-6.193604276308554e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>166.3723625076668</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>166.3723625076668</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11075,7 +11075,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>709.507354261882</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11309,7 +11309,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>862.9111842991651</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>31.07009101060096</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>26.33579611060396</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.1718905122109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>204.4721941096226</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.446659489829308</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>48.19697732171667</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0349065174845</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4628789093298</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>37.46509486399981</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>88.19489769745812</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627264</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.216138714876251e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>161.196277302438</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>44.07191583437717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>160.5740699333298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758688</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>131.1048905002096</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968928</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>287.7001706667559</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.196277302438</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968928</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="U43" t="n">
-        <v>142.1095117736415</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>33.80917593259409</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341607</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.62422204074246</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968928</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353367</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>35.15749310933367</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>377967.4879142091</v>
+        <v>395143.1881030143</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>377967.4879142088</v>
+        <v>395143.188103014</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>396318.6236675626</v>
+        <v>395143.1881030141</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>396318.6236675626</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>379142.9234787572</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>379142.9234787573</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904083</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
-        <v>503956.6505522786</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="F2" t="n">
-        <v>503956.6505522786</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="G2" t="n">
         <v>526857.5841373522</v>
@@ -26332,10 +26332,10 @@
         <v>526857.5841373522</v>
       </c>
       <c r="I2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="J2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="K2" t="n">
         <v>526857.5841373522</v>
@@ -26344,16 +26344,16 @@
         <v>526857.5841373522</v>
       </c>
       <c r="M2" t="n">
-        <v>528424.8315567499</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="N2" t="n">
-        <v>528424.83155675</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="O2" t="n">
-        <v>505523.8979716763</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
-        <v>505523.8979716763</v>
+        <v>526857.5841373522</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501632</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998262</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932545</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319052</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877264</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622192</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017873</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970938</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>771.2835178333007</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>771.2835178333006</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="G4" t="n">
+        <v>806.3323907826402</v>
+      </c>
+      <c r="H4" t="n">
+        <v>806.332390782602</v>
+      </c>
+      <c r="I4" t="n">
         <v>806.3323907826023</v>
-      </c>
-      <c r="H4" t="n">
-        <v>806.3323907826023</v>
-      </c>
-      <c r="I4" t="n">
-        <v>806.3323907825613</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26445,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826152</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>3463.882707434564</v>
+        <v>806.332390782602</v>
       </c>
       <c r="N4" t="n">
-        <v>3463.882707434564</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>3428.833834485262</v>
+        <v>806.3323907825352</v>
       </c>
       <c r="P4" t="n">
-        <v>3428.833834485262</v>
+        <v>806.3323907826024</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800261</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461885</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461885</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.2657166367</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.2657166367</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546304</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546304</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>165363.1378237163</v>
       </c>
       <c r="C6" t="n">
-        <v>307554.4384834262</v>
+        <v>275605.7743902956</v>
       </c>
       <c r="D6" t="n">
-        <v>307554.4384834263</v>
+        <v>336902.7935604174</v>
       </c>
       <c r="E6" t="n">
-        <v>197134.288416572</v>
+        <v>265954.6795803447</v>
       </c>
       <c r="F6" t="n">
-        <v>429974.4904098265</v>
+        <v>448309.7888013943</v>
       </c>
       <c r="G6" t="n">
-        <v>428013.9291175866</v>
+        <v>448309.7888013943</v>
       </c>
       <c r="H6" t="n">
-        <v>448333.0131407771</v>
+        <v>448309.7888013943</v>
       </c>
       <c r="I6" t="n">
-        <v>448333.0131407772</v>
+        <v>448309.7888013942</v>
       </c>
       <c r="J6" t="n">
-        <v>337318.5477957869</v>
+        <v>337295.3234564042</v>
       </c>
       <c r="K6" t="n">
-        <v>448333.0131407771</v>
+        <v>395263.9341626217</v>
       </c>
       <c r="L6" t="n">
-        <v>448333.0131407771</v>
+        <v>438917.4870747722</v>
       </c>
       <c r="M6" t="n">
-        <v>253580.5050308913</v>
+        <v>296109.6178634067</v>
       </c>
       <c r="N6" t="n">
-        <v>447619.6831326787</v>
+        <v>448309.7888013943</v>
       </c>
       <c r="O6" t="n">
-        <v>429261.1604017279</v>
+        <v>448309.7888013945</v>
       </c>
       <c r="P6" t="n">
-        <v>429261.1604017279</v>
+        <v>448309.7888013943</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.272920827791</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.272920827791</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.138677716382</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.138677716382</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992551</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939291</v>
       </c>
       <c r="E4" t="n">
-        <v>779.830402753232</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140892</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939291</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962779</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939291</v>
       </c>
       <c r="M4" t="n">
-        <v>779.830402753232</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140892</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>82.78210805204066</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>399.9667529740391</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>136.6741745584959</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.3301657324369</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>80.16596111500928</v>
+        <v>288.514000334613</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.8170133382505</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D8" t="n">
-        <v>104.675330873648</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>3.742286579561323</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>98.78976122094736</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921992561</v>
+        <v>-1.477928890381008e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921992561</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34857,22 +34857,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335037</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,19 +35024,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188023</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.9496038847592</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>83.24019622442756</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35662,10 +35662,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>464.3964802704259</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37069,16 +37069,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>671.1057765021978</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>-3.292261534887825e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37233,13 +37233,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>166.3723625076668</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107321</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180892</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.173308930034</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865512</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175931</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732869</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>166.3723625076668</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107321</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180891</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300341</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865512</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175931</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732869</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37795,7 +37795,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>709.507354261882</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107321</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180891</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300341</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865513</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175931</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732869</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38029,7 +38029,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>862.9111842991651</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107321</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180891</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300341</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865513</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175931</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732869</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
